--- a/src/Pickles/MIL_pickles/Output/AN170/AN170_TestScript_Desktop_Performance_System_FR_NFR.xlsx
+++ b/src/Pickles/MIL_pickles/Output/AN170/AN170_TestScript_Desktop_Performance_System_FR_NFR.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <x:si>
     <x:t>LegalInformationPage</x:t>
   </x:si>
@@ -48,6 +48,18 @@
   </x:si>
   <x:si>
     <x:t>it contains the clinical use information</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CanAccessInstructionsForUse</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@FR015-4, @UR015-2, @DesktopOnly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I open the User Instructions menu option</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the Instructions for Use is displayed in electronic format</x:t>
   </x:si>
   <x:si>
     <x:t>functional</x:t>
@@ -461,7 +473,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
@@ -486,7 +498,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D10"/>
+  <x:dimension ref="A1:D17"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -544,6 +556,44 @@
         <x:v>10</x:v>
       </x:c>
     </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="B12" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="B13" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4"/>
+    <x:row r="15" spans="1:4">
+      <x:c r="C15" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="C16" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="C17" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
